--- a/lib/data.xlsx
+++ b/lib/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.brownstone/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.brownstone/Desktop/anno/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35345712-C67E-CB4C-88AD-8FBA68269886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB789BAD-E101-494E-BF71-BC8BEFFBC6E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="27600" windowHeight="17040" activeTab="1" xr2:uid="{B0B89E0F-841C-D846-BCB5-99C28F2A4326}"/>
+    <workbookView xWindow="1040" yWindow="500" windowWidth="27600" windowHeight="17040" xr2:uid="{B0B89E0F-841C-D846-BCB5-99C28F2A4326}"/>
   </bookViews>
   <sheets>
     <sheet name="resident" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{651507BD-B917-2345-934F-504E955AE243}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{651507BD-B917-2345-934F-504E955AE243}">
       <text>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,22 +156,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>farmer.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>worker.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>elc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -396,15 +384,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dependenc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>icon_resident_worker.png</t>
+  </si>
+  <si>
+    <t>icon_resident_artisan.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>artisan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_resident_farmer.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_resident_engineer.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>engineer</t>
+  </si>
+  <si>
+    <t>icon_resident_investor.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>investor</t>
+  </si>
+  <si>
+    <t>icon_resident_scholars.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scholars</t>
+  </si>
+  <si>
+    <t>icon_resident_jornalero.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jornalero</t>
+  </si>
+  <si>
+    <t>icon_resident_obrera.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obrera</t>
+  </si>
+  <si>
+    <t>icon_residenta_explorer.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explorer</t>
+  </si>
+  <si>
+    <t>icon_resident_technician.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>technician</t>
+  </si>
+  <si>
+    <t>icon_resident_sheperd.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheperd</t>
+  </si>
+  <si>
+    <t>icon_resident_elder.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elde</t>
+  </si>
+  <si>
+    <t>icon_resident_tourist.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tourist</t>
+  </si>
+  <si>
+    <t>农民</t>
+  </si>
+  <si>
+    <t>工人</t>
+  </si>
+  <si>
+    <t>工匠</t>
+  </si>
+  <si>
+    <t>工程师</t>
+  </si>
+  <si>
+    <t>投资者</t>
+  </si>
+  <si>
+    <t>学者</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>dependence</t>
+  </si>
+  <si>
+    <t>icon_wooden_planks.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -438,6 +534,21 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -456,21 +567,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -483,6 +604,160 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>164809</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>634709</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>479595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0DEF06A-34D5-C447-B6A5-4AFB95DA466A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7319465" y="1017939"/>
+          <a:ext cx="469900" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>164809</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>29084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>634709</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>498984</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{704BB4F6-1053-8941-9E70-F56D05D01E70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7319465" y="533206"/>
+          <a:ext cx="469900" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>584200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA0F194-AB3C-D745-A95B-1B8A1C6E9ECD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7734300" y="749300"/>
+          <a:ext cx="469900" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -782,18 +1057,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A05161B-01D2-F14A-B8F0-22BE6F12C5BC}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7" ht="40" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -807,7 +1084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7" ht="40" customHeight="1">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -818,10 +1095,13 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7" ht="40" customHeight="1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -832,12 +1112,171 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="40" customHeight="1">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="40" customHeight="1">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="40" customHeight="1">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="40" customHeight="1">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <v>120</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="40" customHeight="1">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8">
+        <v>500</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="40" customHeight="1">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="40" customHeight="1">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="40" customHeight="1">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="40" customHeight="1">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="40" customHeight="1">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="40" customHeight="1">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -845,52 +1284,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47542D5D-91DB-664B-9917-3B405B1A72EF}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="50" customHeight="1"/>
   <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="50" customHeight="1">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="50" customHeight="1">
       <c r="B2">
         <v>30</v>
       </c>
-      <c r="D2" t="b">
+      <c r="C2" t="b">
         <v>1</v>
       </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="50" customHeight="1">
       <c r="B3">
         <v>30</v>
       </c>
-      <c r="D3" t="b">
-        <v>0</v>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -913,135 +1362,135 @@
   <sheetData>
     <row r="1" spans="1:43" s="1" customFormat="1" ht="44" customHeight="1">
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:43">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1172,7 +1621,7 @@
     </row>
     <row r="3" spans="1:43">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1303,7 +1752,7 @@
     </row>
     <row r="4" spans="1:43">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1434,7 +1883,7 @@
     </row>
     <row r="5" spans="1:43">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1565,7 +2014,7 @@
     </row>
     <row r="6" spans="1:43">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1696,7 +2145,7 @@
     </row>
     <row r="7" spans="1:43">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1827,7 +2276,7 @@
     </row>
     <row r="8" spans="1:43">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1958,7 +2407,7 @@
     </row>
     <row r="9" spans="1:43" ht="15" customHeight="1">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2089,7 +2538,7 @@
     </row>
     <row r="10" spans="1:43">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2220,7 +2669,7 @@
     </row>
     <row r="11" spans="1:43">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2351,7 +2800,7 @@
     </row>
     <row r="12" spans="1:43">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2482,7 +2931,7 @@
     </row>
     <row r="13" spans="1:43">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2613,7 +3062,7 @@
     </row>
     <row r="14" spans="1:43">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2753,17 +3202,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
